--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/99/word_level_predictions_99.xlsx
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -13918,730 +13918,730 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="inlineStr">
+      <c r="D260" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
+      <c r="F260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>3</v>
-      </c>
-      <c r="E263" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>4</v>
-      </c>
-      <c r="E264" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>5</v>
-      </c>
-      <c r="E265" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>6</v>
-      </c>
-      <c r="E266" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>7</v>
-      </c>
-      <c r="E267" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B272" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>8</v>
-      </c>
-      <c r="E268" t="inlineStr">
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
+      <c r="F272" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>9</v>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>20</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>10</v>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>20</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>11</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>20</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>12</v>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K272" t="b">
-        <v>1</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>20</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F273" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17090,418 +17090,418 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B321" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C321" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D321" t="n">
+      <c r="D321" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E321" t="inlineStr">
+      <c r="E321" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
+      <c r="F321" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G321" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I321" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K321" t="b">
-        <v>1</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="G321" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J321" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L321" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B322" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="C322" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" t="n">
+      <c r="D322" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G322" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I322" t="b">
-        <v>1</v>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K322" t="b">
-        <v>1</v>
-      </c>
-      <c r="L322" t="inlineStr">
+      <c r="E322" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F322" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G322" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J322" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L322" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B323" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C323" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D323" t="n">
+      <c r="D323" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G323" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I323" t="b">
-        <v>1</v>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K323" t="b">
-        <v>1</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="E323" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F323" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G323" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J323" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L323" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B324" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="C324" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D324" t="n">
+      <c r="D324" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" t="b">
-        <v>1</v>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K324" t="b">
-        <v>1</v>
-      </c>
-      <c r="L324" t="inlineStr">
+      <c r="E324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J324" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L324" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C325" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" t="n">
+      <c r="D325" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" t="b">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K325" t="b">
-        <v>1</v>
-      </c>
-      <c r="L325" t="inlineStr">
+      <c r="E325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" t="b">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K326" t="b">
-        <v>1</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="C327" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" t="n">
+      <c r="D327" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" t="b">
-        <v>1</v>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K327" t="b">
-        <v>1</v>
-      </c>
-      <c r="L327" t="inlineStr">
+      <c r="E327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L327" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B328" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" t="n">
+      <c r="D328" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E328" t="inlineStr">
+      <c r="E328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" t="b">
-        <v>1</v>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K328" t="b">
-        <v>1</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F328" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G328" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L328" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" t="n">
         <v>27</v>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B330" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" s="2" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" s="2" t="inlineStr">
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L330" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K330" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" t="n">
         <v>27</v>
       </c>
-      <c r="B331" s="2" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" s="2" t="inlineStr">
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L331" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" t="n">
         <v>27</v>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D332" s="2" t="n">
+      <c r="D332" t="n">
         <v>2</v>
       </c>
-      <c r="E332" s="2" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F332" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L332" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" t="n">
         <v>27</v>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" s="2" t="n">
+      <c r="D333" t="n">
         <v>3</v>
       </c>
-      <c r="E333" s="2" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G434" t="b">
@@ -23013,57 +23013,57 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
+      <c r="A435" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B435" t="inlineStr">
+      <c r="B435" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C435" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D435" t="n">
+      <c r="D435" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E435" t="inlineStr">
+      <c r="E435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" t="inlineStr">
+      <c r="F435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G435" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" t="b">
-        <v>1</v>
-      </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K435" t="b">
-        <v>1</v>
-      </c>
-      <c r="L435" t="inlineStr">
+      <c r="G435" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J435" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L435" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/99/word_level_predictions_99.xlsx
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>9</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13918,730 +13918,730 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>20</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" t="n">
         <v>0</v>
       </c>
-      <c r="E260" s="2" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" s="2" t="inlineStr">
+      <c r="F260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>20</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>20</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>2</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>20</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>3</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>20</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>4</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>20</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>5</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" s="2" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>20</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>6</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" s="2" t="inlineStr">
+      <c r="F266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>20</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>7</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" s="2" t="inlineStr">
+      <c r="F267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>20</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>8</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>20</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>9</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>20</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>10</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>20</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>11</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" t="n">
         <v>20</v>
       </c>
-      <c r="B272" s="2" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" s="2" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
+      <c r="D272" t="n">
         <v>12</v>
       </c>
-      <c r="E272" s="2" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F272" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G272" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>20</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" t="n">
         <v>13</v>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17090,418 +17090,418 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" t="n">
         <v>26</v>
       </c>
-      <c r="B321" s="2" t="inlineStr">
+      <c r="B321" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C321" s="2" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D321" s="2" t="n">
+      <c r="D321" t="n">
         <v>4</v>
       </c>
-      <c r="E321" s="2" t="inlineStr">
+      <c r="E321" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F321" s="2" t="inlineStr">
+      <c r="F321" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G321" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L321" s="2" t="inlineStr">
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I321" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K321" t="b">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" t="n">
         <v>26</v>
       </c>
-      <c r="B322" s="2" t="inlineStr">
+      <c r="B322" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C322" s="2" t="inlineStr">
+      <c r="C322" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" s="2" t="n">
+      <c r="D322" t="n">
         <v>5</v>
       </c>
-      <c r="E322" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F322" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G322" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L322" s="2" t="inlineStr">
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G322" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I322" t="b">
+        <v>1</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K322" t="b">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" t="n">
         <v>26</v>
       </c>
-      <c r="B323" s="2" t="inlineStr">
+      <c r="B323" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C323" s="2" t="inlineStr">
+      <c r="C323" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D323" s="2" t="n">
+      <c r="D323" t="n">
         <v>6</v>
       </c>
-      <c r="E323" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F323" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G323" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L323" s="2" t="inlineStr">
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G323" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I323" t="b">
+        <v>1</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K323" t="b">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" t="n">
         <v>26</v>
       </c>
-      <c r="B324" s="2" t="inlineStr">
+      <c r="B324" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C324" s="2" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D324" s="2" t="n">
+      <c r="D324" t="n">
         <v>7</v>
       </c>
-      <c r="E324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L324" s="2" t="inlineStr">
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" t="n">
         <v>26</v>
       </c>
-      <c r="B325" s="2" t="inlineStr">
+      <c r="B325" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" s="2" t="n">
+      <c r="D325" t="n">
         <v>8</v>
       </c>
-      <c r="E325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L325" s="2" t="inlineStr">
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" t="n">
         <v>26</v>
       </c>
-      <c r="B326" s="2" t="inlineStr">
+      <c r="B326" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" s="2" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" s="2" t="n">
+      <c r="D326" t="n">
         <v>9</v>
       </c>
-      <c r="E326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L326" s="2" t="inlineStr">
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
+      <c r="A327" t="n">
         <v>26</v>
       </c>
-      <c r="B327" s="2" t="inlineStr">
+      <c r="B327" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" s="2" t="inlineStr">
+      <c r="C327" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" s="2" t="n">
+      <c r="D327" t="n">
         <v>10</v>
       </c>
-      <c r="E327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L327" s="2" t="inlineStr">
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" t="b">
+        <v>1</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K327" t="b">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
+      <c r="A328" t="n">
         <v>26</v>
       </c>
-      <c r="B328" s="2" t="inlineStr">
+      <c r="B328" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" s="2" t="inlineStr">
+      <c r="C328" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" s="2" t="n">
+      <c r="D328" t="n">
         <v>11</v>
       </c>
-      <c r="E328" s="2" t="inlineStr">
+      <c r="E328" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L328" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K328" t="b">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" t="n">
+      <c r="D330" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E330" t="inlineStr">
+      <c r="E330" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G330" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K330" t="b">
-        <v>1</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" t="inlineStr">
+      <c r="D331" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
+      <c r="F331" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space . Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G331" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K331" t="b">
-        <v>1</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
+      <c r="F332" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L332" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B333" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D332" t="n">
-        <v>2</v>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G332" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K332" t="b">
-        <v>1</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>27</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E333" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G333" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K333" t="b">
-        <v>1</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F333" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -22989,81 +22989,81 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G434" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I434" t="b">
+        <v>1</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K434" t="b">
+        <v>1</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>35</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>8</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G434" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I434" t="b">
-        <v>1</v>
-      </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K434" t="b">
-        <v>1</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B435" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C435" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D435" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E435" s="2" t="inlineStr">
+      <c r="F435" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G435" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J435" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L435" s="2" t="inlineStr">
+      <c r="G435" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K435" t="b">
+        <v>1</v>
+      </c>
+      <c r="L435" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
